--- a/database/seeds/Catalogos/RolMenu.xlsx
+++ b/database/seeds/Catalogos/RolMenu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t>#</t>
   </si>
@@ -102,13 +102,46 @@
   </si>
   <si>
     <t>warning</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>Venta</t>
+  </si>
+  <si>
+    <t>ADMIN_VEN</t>
+  </si>
+  <si>
+    <t>Aceptado</t>
+  </si>
+  <si>
+    <t>acept</t>
+  </si>
+  <si>
+    <t>Completo</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>Anulado</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>Bitácora</t>
+  </si>
+  <si>
+    <t>binnacle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +156,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -157,6 +195,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,6 +660,133 @@
         <v>19</v>
       </c>
     </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
